--- a/chaoxing-spider/2022年C++平时成绩.xlsx
+++ b/chaoxing-spider/2022年C++平时成绩.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="363">
   <si>
     <t>作业占50%
 每次作业归一化到5分，第7次归一化到10分，共50分</t>
@@ -147,13 +147,10 @@
     <t>55.0</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>23.349999999999998</t>
-  </si>
-  <si>
-    <t>91.95</t>
+    <t>27.849999999999998</t>
+  </si>
+  <si>
+    <t>94.85</t>
   </si>
   <si>
     <t>20212241002</t>
@@ -189,7 +186,7 @@
     <t>29.7</t>
   </si>
   <si>
-    <t>101.8</t>
+    <t>101.0</t>
   </si>
   <si>
     <t>20212241018</t>
@@ -243,7 +240,7 @@
     <t>26.53333333333333</t>
   </si>
   <si>
-    <t>96.74999999999999</t>
+    <t>95.14999999999998</t>
   </si>
   <si>
     <t>20212241033</t>
@@ -267,7 +264,7 @@
     <t>28.96666666666667</t>
   </si>
   <si>
-    <t>105.56666666666666</t>
+    <t>105.16666666666666</t>
   </si>
   <si>
     <t>20212241037</t>
@@ -285,7 +282,7 @@
     <t>28.0</t>
   </si>
   <si>
-    <t>91.01666666666667</t>
+    <t>89.41666666666666</t>
   </si>
   <si>
     <t>20212241038</t>
@@ -303,7 +300,7 @@
     <t>26.733333333333338</t>
   </si>
   <si>
-    <t>93.6</t>
+    <t>92.4</t>
   </si>
   <si>
     <t>20212241048</t>
@@ -327,7 +324,7 @@
     <t>28.35</t>
   </si>
   <si>
-    <t>96.53333333333333</t>
+    <t>94.93333333333334</t>
   </si>
   <si>
     <t>20212241055</t>
@@ -357,7 +354,7 @@
     <t>28.833333333333332</t>
   </si>
   <si>
-    <t>95.43333333333332</t>
+    <t>92.63333333333333</t>
   </si>
   <si>
     <t>20212241060</t>
@@ -384,9 +381,6 @@
     <t>30.0</t>
   </si>
   <si>
-    <t>100.0</t>
-  </si>
-  <si>
     <t>20212241101</t>
   </si>
   <si>
@@ -396,7 +390,7 @@
     <t>23.45</t>
   </si>
   <si>
-    <t>91.06666666666666</t>
+    <t>89.46666666666665</t>
   </si>
   <si>
     <t>20212241104</t>
@@ -414,7 +408,7 @@
     <t>29.083333333333332</t>
   </si>
   <si>
-    <t>97.26666666666668</t>
+    <t>95.66666666666667</t>
   </si>
   <si>
     <t>20212241108</t>
@@ -429,7 +423,7 @@
     <t>49.36666666666667</t>
   </si>
   <si>
-    <t>100.36666666666667</t>
+    <t>99.96666666666667</t>
   </si>
   <si>
     <t>20212241123</t>
@@ -444,7 +438,7 @@
     <t>29.183333333333334</t>
   </si>
   <si>
-    <t>98.91666666666667</t>
+    <t>97.31666666666666</t>
   </si>
   <si>
     <t>20212241129</t>
@@ -459,7 +453,7 @@
     <t>29.8</t>
   </si>
   <si>
-    <t>102.25</t>
+    <t>100.65</t>
   </si>
   <si>
     <t>20212241143</t>
@@ -477,7 +471,7 @@
     <t>28.55</t>
   </si>
   <si>
-    <t>97.1</t>
+    <t>95.89999999999999</t>
   </si>
   <si>
     <t>20212241152</t>
@@ -498,7 +492,7 @@
     <t>20.983333333333334</t>
   </si>
   <si>
-    <t>63.666666666666664</t>
+    <t>61.266666666666666</t>
   </si>
   <si>
     <t>20212241173</t>
@@ -510,7 +504,7 @@
     <t>29.9</t>
   </si>
   <si>
-    <t>103.69999999999999</t>
+    <t>102.1</t>
   </si>
   <si>
     <t>20212241174</t>
@@ -525,7 +519,7 @@
     <t>28.76666666666667</t>
   </si>
   <si>
-    <t>102.51666666666667</t>
+    <t>101.31666666666666</t>
   </si>
   <si>
     <t>20212241187</t>
@@ -540,7 +534,7 @@
     <t>26.98333333333333</t>
   </si>
   <si>
-    <t>93.44999999999999</t>
+    <t>91.05</t>
   </si>
   <si>
     <t>20212241196</t>
@@ -552,7 +546,7 @@
     <t>49.45</t>
   </si>
   <si>
-    <t>103.15</t>
+    <t>101.55000000000001</t>
   </si>
   <si>
     <t>20212241203</t>
@@ -570,7 +564,7 @@
     <t>25.7</t>
   </si>
   <si>
-    <t>91.98333333333333</t>
+    <t>90.38333333333333</t>
   </si>
   <si>
     <t>20212241209</t>
@@ -588,7 +582,7 @@
     <t>24.266666666666666</t>
   </si>
   <si>
-    <t>91.93333333333332</t>
+    <t>90.33333333333331</t>
   </si>
   <si>
     <t>20212241225</t>
@@ -618,493 +612,493 @@
     <t>29.4</t>
   </si>
   <si>
+    <t>102.95</t>
+  </si>
+  <si>
+    <t>20212241231</t>
+  </si>
+  <si>
+    <t>蔡雨洁</t>
+  </si>
+  <si>
+    <t>48.53333333333334</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>79.23333333333335</t>
+  </si>
+  <si>
+    <t>20212241234</t>
+  </si>
+  <si>
+    <t>刘诗煜</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48.4</t>
+  </si>
+  <si>
+    <t>29.583333333333336</t>
+  </si>
+  <si>
+    <t>100.78333333333333</t>
+  </si>
+  <si>
+    <t>20212241255</t>
+  </si>
+  <si>
+    <t>隋炫芝</t>
+  </si>
+  <si>
+    <t>46.03333333333333</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>27.96666666666667</t>
+  </si>
+  <si>
+    <t>93.2</t>
+  </si>
+  <si>
+    <t>20212241259</t>
+  </si>
+  <si>
+    <t>官牧全</t>
+  </si>
+  <si>
+    <t>49.150000000000006</t>
+  </si>
+  <si>
+    <t>18.233333333333334</t>
+  </si>
+  <si>
+    <t>87.38333333333334</t>
+  </si>
+  <si>
+    <t>20212241264</t>
+  </si>
+  <si>
+    <t>彭慧琳</t>
+  </si>
+  <si>
+    <t>48.8</t>
+  </si>
+  <si>
+    <t>27.933333333333334</t>
+  </si>
+  <si>
+    <t>100.13333333333333</t>
+  </si>
+  <si>
+    <t>20212241268</t>
+  </si>
+  <si>
+    <t>张渤文</t>
+  </si>
+  <si>
+    <t>48.78333333333334</t>
+  </si>
+  <si>
+    <t>22.21666666666667</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>20212241279</t>
+  </si>
+  <si>
+    <t>孙齐恒</t>
+  </si>
+  <si>
+    <t>49.3</t>
+  </si>
+  <si>
+    <t>28.416666666666664</t>
+  </si>
+  <si>
+    <t>95.31666666666666</t>
+  </si>
+  <si>
+    <t>20212241283</t>
+  </si>
+  <si>
+    <t>李东航</t>
+  </si>
+  <si>
+    <t>102.2</t>
+  </si>
+  <si>
+    <t>20212241289</t>
+  </si>
+  <si>
+    <t>关善来</t>
+  </si>
+  <si>
+    <t>软2111</t>
+  </si>
+  <si>
+    <t>48.9</t>
+  </si>
+  <si>
+    <t>27.46666666666667</t>
+  </si>
+  <si>
+    <t>95.16666666666667</t>
+  </si>
+  <si>
+    <t>20212241291</t>
+  </si>
+  <si>
+    <t>孙琪</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>47.53333333333334</t>
+  </si>
+  <si>
+    <t>25.6</t>
+  </si>
+  <si>
+    <t>88.73333333333333</t>
+  </si>
+  <si>
+    <t>20212241300</t>
+  </si>
+  <si>
+    <t>周宇航</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>48.2</t>
+  </si>
+  <si>
+    <t>22.48333333333333</t>
+  </si>
+  <si>
+    <t>89.88333333333334</t>
+  </si>
+  <si>
+    <t>20212241311</t>
+  </si>
+  <si>
+    <t>张希哲</t>
+  </si>
+  <si>
+    <t>49.483333333333334</t>
+  </si>
+  <si>
+    <t>29.75</t>
+  </si>
+  <si>
+    <t>99.83333333333334</t>
+  </si>
+  <si>
+    <t>20212241314</t>
+  </si>
+  <si>
+    <t>杜千葳</t>
+  </si>
+  <si>
+    <t>48.833333333333336</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>28.083333333333332</t>
+  </si>
+  <si>
+    <t>100.71666666666667</t>
+  </si>
+  <si>
+    <t>20212241325</t>
+  </si>
+  <si>
+    <t>赵中伟</t>
+  </si>
+  <si>
+    <t>43.9</t>
+  </si>
+  <si>
+    <t>25.833333333333336</t>
+  </si>
+  <si>
+    <t>95.83333333333334</t>
+  </si>
+  <si>
+    <t>20212241328</t>
+  </si>
+  <si>
+    <t>李金伦</t>
+  </si>
+  <si>
+    <t>47.2</t>
+  </si>
+  <si>
+    <t>29.71666666666667</t>
+  </si>
+  <si>
+    <t>96.91666666666667</t>
+  </si>
+  <si>
+    <t>20212241344</t>
+  </si>
+  <si>
+    <t>闫鹏飞</t>
+  </si>
+  <si>
+    <t>48.86666666666667</t>
+  </si>
+  <si>
+    <t>26.366666666666667</t>
+  </si>
+  <si>
+    <t>94.03333333333333</t>
+  </si>
+  <si>
+    <t>20212241350</t>
+  </si>
+  <si>
+    <t>马博辉</t>
+  </si>
+  <si>
+    <t>49.31666666666666</t>
+  </si>
+  <si>
+    <t>26.183333333333334</t>
+  </si>
+  <si>
+    <t>88.7</t>
+  </si>
+  <si>
+    <t>20212241358</t>
+  </si>
+  <si>
+    <t>舒琪钧</t>
+  </si>
+  <si>
+    <t>48.68333333333334</t>
+  </si>
+  <si>
+    <t>27.833333333333332</t>
+  </si>
+  <si>
+    <t>96.51666666666667</t>
+  </si>
+  <si>
+    <t>20212241384</t>
+  </si>
+  <si>
+    <t>彭俊</t>
+  </si>
+  <si>
+    <t>41.03333333333334</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>23.533333333333335</t>
+  </si>
+  <si>
+    <t>83.76666666666668</t>
+  </si>
+  <si>
+    <t>20212241390</t>
+  </si>
+  <si>
+    <t>李宇彤</t>
+  </si>
+  <si>
+    <t>49.016666666666666</t>
+  </si>
+  <si>
+    <t>29.866666666666667</t>
+  </si>
+  <si>
+    <t>96.48333333333332</t>
+  </si>
+  <si>
+    <t>20212241402</t>
+  </si>
+  <si>
+    <t>许愈珍</t>
+  </si>
+  <si>
+    <t>49.18333333333334</t>
+  </si>
+  <si>
+    <t>22.95</t>
+  </si>
+  <si>
+    <t>87.73333333333333</t>
+  </si>
+  <si>
+    <t>20212241406</t>
+  </si>
+  <si>
+    <t>范英玮</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>74.5</t>
+  </si>
+  <si>
+    <t>20212241419</t>
+  </si>
+  <si>
+    <t>王鑫</t>
+  </si>
+  <si>
+    <t>99.45</t>
+  </si>
+  <si>
+    <t>20212241425</t>
+  </si>
+  <si>
+    <t>于栖浩</t>
+  </si>
+  <si>
+    <t>49.05</t>
+  </si>
+  <si>
+    <t>20212241431</t>
+  </si>
+  <si>
+    <t>马恒</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>27.233333333333334</t>
+  </si>
+  <si>
+    <t>88.88333333333333</t>
+  </si>
+  <si>
+    <t>20212241438</t>
+  </si>
+  <si>
+    <t>杨帆</t>
+  </si>
+  <si>
+    <t>97.63333333333334</t>
+  </si>
+  <si>
+    <t>20212241454</t>
+  </si>
+  <si>
+    <t>张家豪</t>
+  </si>
+  <si>
+    <t>43.63333333333333</t>
+  </si>
+  <si>
+    <t>101.38333333333333</t>
+  </si>
+  <si>
+    <t>20212241461</t>
+  </si>
+  <si>
+    <t>赵强</t>
+  </si>
+  <si>
+    <t>48.56666666666666</t>
+  </si>
+  <si>
+    <t>28.616666666666667</t>
+  </si>
+  <si>
+    <t>102.18333333333334</t>
+  </si>
+  <si>
+    <t>20212241463</t>
+  </si>
+  <si>
+    <t>么俊璇</t>
+  </si>
+  <si>
+    <t>48.65</t>
+  </si>
+  <si>
+    <t>29.916666666666664</t>
+  </si>
+  <si>
+    <t>98.56666666666666</t>
+  </si>
+  <si>
+    <t>20212241470</t>
+  </si>
+  <si>
+    <t>杨心语</t>
+  </si>
+  <si>
+    <t>49.8</t>
+  </si>
+  <si>
+    <t>24.733333333333334</t>
+  </si>
+  <si>
+    <t>94.53333333333333</t>
+  </si>
+  <si>
+    <t>20212241482</t>
+  </si>
+  <si>
+    <t>孙厚杰</t>
+  </si>
+  <si>
+    <t>49.6</t>
+  </si>
+  <si>
+    <t>28.46666666666667</t>
+  </si>
+  <si>
+    <t>98.86666666666666</t>
+  </si>
+  <si>
+    <t>20212241486</t>
+  </si>
+  <si>
+    <t>罗原</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>27.95</t>
+  </si>
+  <si>
     <t>103.75</t>
-  </si>
-  <si>
-    <t>20212241231</t>
-  </si>
-  <si>
-    <t>蔡雨洁</t>
-  </si>
-  <si>
-    <t>48.53333333333334</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>16.3</t>
-  </si>
-  <si>
-    <t>81.63333333333334</t>
-  </si>
-  <si>
-    <t>20212241234</t>
-  </si>
-  <si>
-    <t>刘诗煜</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48.4</t>
-  </si>
-  <si>
-    <t>29.583333333333336</t>
-  </si>
-  <si>
-    <t>101.98333333333333</t>
-  </si>
-  <si>
-    <t>20212241255</t>
-  </si>
-  <si>
-    <t>隋炫芝</t>
-  </si>
-  <si>
-    <t>46.03333333333333</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>27.96666666666667</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>20212241259</t>
-  </si>
-  <si>
-    <t>官牧全</t>
-  </si>
-  <si>
-    <t>49.150000000000006</t>
-  </si>
-  <si>
-    <t>18.233333333333334</t>
-  </si>
-  <si>
-    <t>87.38333333333334</t>
-  </si>
-  <si>
-    <t>20212241264</t>
-  </si>
-  <si>
-    <t>彭慧琳</t>
-  </si>
-  <si>
-    <t>48.8</t>
-  </si>
-  <si>
-    <t>27.933333333333334</t>
-  </si>
-  <si>
-    <t>101.73333333333333</t>
-  </si>
-  <si>
-    <t>20212241268</t>
-  </si>
-  <si>
-    <t>张渤文</t>
-  </si>
-  <si>
-    <t>48.78333333333334</t>
-  </si>
-  <si>
-    <t>22.21666666666667</t>
-  </si>
-  <si>
-    <t>90.6</t>
-  </si>
-  <si>
-    <t>20212241279</t>
-  </si>
-  <si>
-    <t>孙齐恒</t>
-  </si>
-  <si>
-    <t>49.3</t>
-  </si>
-  <si>
-    <t>28.416666666666664</t>
-  </si>
-  <si>
-    <t>97.71666666666667</t>
-  </si>
-  <si>
-    <t>20212241283</t>
-  </si>
-  <si>
-    <t>李东航</t>
-  </si>
-  <si>
-    <t>102.2</t>
-  </si>
-  <si>
-    <t>20212241289</t>
-  </si>
-  <si>
-    <t>关善来</t>
-  </si>
-  <si>
-    <t>软2111</t>
-  </si>
-  <si>
-    <t>48.9</t>
-  </si>
-  <si>
-    <t>27.46666666666667</t>
-  </si>
-  <si>
-    <t>96.36666666666667</t>
-  </si>
-  <si>
-    <t>20212241291</t>
-  </si>
-  <si>
-    <t>孙琪</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>47.53333333333334</t>
-  </si>
-  <si>
-    <t>25.6</t>
-  </si>
-  <si>
-    <t>91.93333333333334</t>
-  </si>
-  <si>
-    <t>20212241300</t>
-  </si>
-  <si>
-    <t>周宇航</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>48.2</t>
-  </si>
-  <si>
-    <t>22.48333333333333</t>
-  </si>
-  <si>
-    <t>90.68333333333334</t>
-  </si>
-  <si>
-    <t>20212241311</t>
-  </si>
-  <si>
-    <t>张希哲</t>
-  </si>
-  <si>
-    <t>49.483333333333334</t>
-  </si>
-  <si>
-    <t>29.75</t>
-  </si>
-  <si>
-    <t>101.43333333333334</t>
-  </si>
-  <si>
-    <t>20212241314</t>
-  </si>
-  <si>
-    <t>杜千葳</t>
-  </si>
-  <si>
-    <t>48.833333333333336</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>28.083333333333332</t>
-  </si>
-  <si>
-    <t>101.91666666666667</t>
-  </si>
-  <si>
-    <t>20212241325</t>
-  </si>
-  <si>
-    <t>赵中伟</t>
-  </si>
-  <si>
-    <t>43.9</t>
-  </si>
-  <si>
-    <t>25.833333333333336</t>
-  </si>
-  <si>
-    <t>97.43333333333334</t>
-  </si>
-  <si>
-    <t>20212241328</t>
-  </si>
-  <si>
-    <t>李金伦</t>
-  </si>
-  <si>
-    <t>47.2</t>
-  </si>
-  <si>
-    <t>29.71666666666667</t>
-  </si>
-  <si>
-    <t>96.91666666666667</t>
-  </si>
-  <si>
-    <t>20212241344</t>
-  </si>
-  <si>
-    <t>闫鹏飞</t>
-  </si>
-  <si>
-    <t>48.86666666666667</t>
-  </si>
-  <si>
-    <t>26.366666666666667</t>
-  </si>
-  <si>
-    <t>94.83333333333334</t>
-  </si>
-  <si>
-    <t>20212241350</t>
-  </si>
-  <si>
-    <t>马博辉</t>
-  </si>
-  <si>
-    <t>49.31666666666666</t>
-  </si>
-  <si>
-    <t>26.183333333333334</t>
-  </si>
-  <si>
-    <t>91.9</t>
-  </si>
-  <si>
-    <t>20212241358</t>
-  </si>
-  <si>
-    <t>舒琪钧</t>
-  </si>
-  <si>
-    <t>48.68333333333334</t>
-  </si>
-  <si>
-    <t>23.333333333333332</t>
-  </si>
-  <si>
-    <t>92.01666666666667</t>
-  </si>
-  <si>
-    <t>20212241384</t>
-  </si>
-  <si>
-    <t>彭俊</t>
-  </si>
-  <si>
-    <t>41.03333333333334</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>23.533333333333335</t>
-  </si>
-  <si>
-    <t>84.56666666666668</t>
-  </si>
-  <si>
-    <t>20212241390</t>
-  </si>
-  <si>
-    <t>李宇彤</t>
-  </si>
-  <si>
-    <t>49.016666666666666</t>
-  </si>
-  <si>
-    <t>29.866666666666667</t>
-  </si>
-  <si>
-    <t>97.28333333333333</t>
-  </si>
-  <si>
-    <t>20212241402</t>
-  </si>
-  <si>
-    <t>许愈珍</t>
-  </si>
-  <si>
-    <t>49.18333333333334</t>
-  </si>
-  <si>
-    <t>22.95</t>
-  </si>
-  <si>
-    <t>89.33333333333334</t>
-  </si>
-  <si>
-    <t>20212241406</t>
-  </si>
-  <si>
-    <t>范英玮</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>40.2</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>76.9</t>
-  </si>
-  <si>
-    <t>20212241419</t>
-  </si>
-  <si>
-    <t>王鑫</t>
-  </si>
-  <si>
-    <t>101.85000000000001</t>
-  </si>
-  <si>
-    <t>20212241425</t>
-  </si>
-  <si>
-    <t>于栖浩</t>
-  </si>
-  <si>
-    <t>49.05</t>
-  </si>
-  <si>
-    <t>20212241431</t>
-  </si>
-  <si>
-    <t>马恒</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>27.233333333333334</t>
-  </si>
-  <si>
-    <t>89.68333333333334</t>
-  </si>
-  <si>
-    <t>20212241438</t>
-  </si>
-  <si>
-    <t>杨帆</t>
-  </si>
-  <si>
-    <t>98.43333333333334</t>
-  </si>
-  <si>
-    <t>20212241454</t>
-  </si>
-  <si>
-    <t>张家豪</t>
-  </si>
-  <si>
-    <t>43.63333333333333</t>
-  </si>
-  <si>
-    <t>102.58333333333333</t>
-  </si>
-  <si>
-    <t>20212241461</t>
-  </si>
-  <si>
-    <t>赵强</t>
-  </si>
-  <si>
-    <t>48.56666666666666</t>
-  </si>
-  <si>
-    <t>28.616666666666667</t>
-  </si>
-  <si>
-    <t>102.18333333333334</t>
-  </si>
-  <si>
-    <t>20212241463</t>
-  </si>
-  <si>
-    <t>么俊璇</t>
-  </si>
-  <si>
-    <t>48.65</t>
-  </si>
-  <si>
-    <t>29.916666666666664</t>
-  </si>
-  <si>
-    <t>98.56666666666666</t>
-  </si>
-  <si>
-    <t>20212241470</t>
-  </si>
-  <si>
-    <t>杨心语</t>
-  </si>
-  <si>
-    <t>49.8</t>
-  </si>
-  <si>
-    <t>24.733333333333334</t>
-  </si>
-  <si>
-    <t>94.53333333333333</t>
-  </si>
-  <si>
-    <t>20212241482</t>
-  </si>
-  <si>
-    <t>孙厚杰</t>
-  </si>
-  <si>
-    <t>49.6</t>
-  </si>
-  <si>
-    <t>28.46666666666667</t>
-  </si>
-  <si>
-    <t>100.46666666666667</t>
-  </si>
-  <si>
-    <t>20212241486</t>
-  </si>
-  <si>
-    <t>罗原</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>27.95</t>
-  </si>
-  <si>
-    <t>104.95</t>
   </si>
   <si>
     <t>20212241491</t>
@@ -1212,7 +1206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1224,10 +1218,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1544,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1564,34 +1564,34 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="7"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="7"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="7"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1734,59 +1734,59 @@
       <c r="R3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="4">
+        <v>50</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="U3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V3" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="W3" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="X3" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Y3" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Z3">
-        <v>19.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>36</v>
@@ -1803,10 +1803,10 @@
         <v>37</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>34</v>
@@ -1818,48 +1818,48 @@
         <v>150</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="U4" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V4" s="1">
+        <v>10</v>
+      </c>
+      <c r="W4" s="1">
         <v>20</v>
       </c>
-      <c r="W4" s="1">
-        <v>10</v>
-      </c>
       <c r="X4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z4">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="AA4">
         <v>3</v>
       </c>
       <c r="AB4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
@@ -1877,19 +1877,19 @@
         <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>39</v>
@@ -1904,28 +1904,28 @@
         <v>100</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U5" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V5" s="1">
+        <v>10</v>
+      </c>
+      <c r="W5" s="1">
+        <v>10</v>
+      </c>
+      <c r="X5" s="1">
         <v>20</v>
       </c>
-      <c r="W5" s="1">
-        <v>10</v>
-      </c>
-      <c r="X5" s="1">
-        <v>10</v>
-      </c>
       <c r="Y5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z5">
         <v>20</v>
@@ -1934,48 +1934,48 @@
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>34</v>
@@ -1990,84 +1990,84 @@
         <v>124</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="U6" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V6" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="W6" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="X6" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Y6">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Z6">
-        <v>19.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AA6">
         <v>3</v>
       </c>
       <c r="AB6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>34</v>
@@ -2076,19 +2076,19 @@
         <v>149</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U7" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V7" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W7" s="1">
         <v>10</v>
@@ -2097,39 +2097,39 @@
         <v>10</v>
       </c>
       <c r="Y7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z7">
-        <v>20</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AA7">
         <v>8</v>
       </c>
       <c r="AB7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>35</v>
@@ -2144,13 +2144,13 @@
         <v>36</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>34</v>
@@ -2165,19 +2165,19 @@
         <v>40</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="U8" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V8" s="1">
         <v>8</v>
       </c>
       <c r="W8" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X8" s="1">
         <v>12</v>
@@ -2186,30 +2186,30 @@
         <v>6</v>
       </c>
       <c r="Z8">
-        <v>15.2</v>
+        <v>13.6</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>34</v>
@@ -2224,78 +2224,78 @@
         <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="1">
         <v>134</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="U9" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V9" s="1">
         <v>10</v>
       </c>
       <c r="W9" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="X9" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Z9">
-        <v>19.600000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>34</v>
@@ -2304,7 +2304,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>34</v>
@@ -2313,13 +2313,13 @@
         <v>35</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>35</v>
@@ -2328,57 +2328,57 @@
         <v>34</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="1">
         <v>145</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="U10" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V10" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W10" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X10" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z10">
-        <v>20</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>33</v>
@@ -2387,7 +2387,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>34</v>
@@ -2405,10 +2405,10 @@
         <v>37</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>34</v>
@@ -2420,16 +2420,16 @@
         <v>150</v>
       </c>
       <c r="R11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U11" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V11" s="1">
         <v>10</v>
@@ -2441,7 +2441,7 @@
         <v>10</v>
       </c>
       <c r="Y11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z11">
         <v>20</v>
@@ -2450,30 +2450,30 @@
         <v>5</v>
       </c>
       <c r="AB11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>35</v>
@@ -2491,13 +2491,13 @@
         <v>37</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>34</v>
@@ -2506,84 +2506,84 @@
         <v>145</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U12" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W12" s="1">
         <v>10</v>
       </c>
       <c r="X12" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Y12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z12">
-        <v>20</v>
+        <v>17.2</v>
       </c>
       <c r="AA12">
         <v>2.5</v>
       </c>
       <c r="AB12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>35</v>
@@ -2592,28 +2592,28 @@
         <v>140</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U13" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V13" s="1">
+        <v>10</v>
+      </c>
+      <c r="W13" s="1">
+        <v>10</v>
+      </c>
+      <c r="X13" s="1">
         <v>20</v>
       </c>
-      <c r="W13" s="1">
-        <v>10</v>
-      </c>
-      <c r="X13" s="1">
-        <v>10</v>
-      </c>
       <c r="Y13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z13">
         <v>20</v>
@@ -2622,18 +2622,18 @@
         <v>0</v>
       </c>
       <c r="AB13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>34</v>
@@ -2663,7 +2663,7 @@
         <v>37</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>34</v>
@@ -2678,16 +2678,16 @@
         <v>150</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U14" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V14" s="1">
         <v>10</v>
@@ -2699,33 +2699,33 @@
         <v>10</v>
       </c>
       <c r="Y14">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z14">
-        <v>20</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>120</v>
+        <v>3</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>102.6</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>34</v>
@@ -2740,22 +2740,22 @@
         <v>35</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>35</v>
@@ -2764,60 +2764,60 @@
         <v>144</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U15" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V15" s="1">
         <v>10</v>
       </c>
       <c r="W15" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="X15" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y15">
+        <v>16</v>
+      </c>
+      <c r="Z15">
         <v>18</v>
-      </c>
-      <c r="Z15">
-        <v>19.600000000000001</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>34</v>
@@ -2826,19 +2826,19 @@
         <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>34</v>
@@ -2850,66 +2850,66 @@
         <v>145</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U16" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V16" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W16" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="X16" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y16">
+        <v>8</v>
+      </c>
+      <c r="Z16">
         <v>18</v>
-      </c>
-      <c r="Z16">
-        <v>19.600000000000001</v>
       </c>
       <c r="AA16">
         <v>4.5</v>
       </c>
       <c r="AB16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>34</v>
@@ -2918,10 +2918,10 @@
         <v>36</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>34</v>
@@ -2936,19 +2936,19 @@
         <v>145</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U17" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V17" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W17" s="1">
         <v>10</v>
@@ -2957,27 +2957,27 @@
         <v>10</v>
       </c>
       <c r="Y17">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Z17">
-        <v>20</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AA17">
         <v>3</v>
       </c>
       <c r="AB17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>34</v>
@@ -2998,19 +2998,19 @@
         <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>34</v>
@@ -3022,54 +3022,54 @@
         <v>145</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U18" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V18" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W18" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X18" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Y18">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="Z18">
-        <v>20</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>34</v>
@@ -3093,7 +3093,7 @@
         <v>37</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>39</v>
@@ -3108,48 +3108,48 @@
         <v>150</v>
       </c>
       <c r="R19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T19" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U19" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V19" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W19" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X19" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y19">
         <v>8</v>
       </c>
       <c r="Z19">
-        <v>19.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AA19">
         <v>4</v>
       </c>
       <c r="AB19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>34</v>
@@ -3167,7 +3167,7 @@
         <v>35</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>34</v>
@@ -3179,10 +3179,10 @@
         <v>37</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>32</v>
@@ -3194,84 +3194,84 @@
         <v>144</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U20" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V20" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W20" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X20" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z20">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="O21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>34</v>
@@ -3280,48 +3280,48 @@
         <v>99</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U21" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V21" s="1">
         <v>10</v>
       </c>
       <c r="W21" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="X21" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y21">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Z21">
-        <v>19.600000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>34</v>
@@ -3330,10 +3330,10 @@
         <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>34</v>
@@ -3351,7 +3351,7 @@
         <v>37</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>35</v>
@@ -3366,48 +3366,48 @@
         <v>150</v>
       </c>
       <c r="R22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T22" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U22" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V22" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W22" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="X22" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y22">
+        <v>8</v>
+      </c>
+      <c r="Z22">
         <v>18</v>
-      </c>
-      <c r="Z22">
-        <v>19.600000000000001</v>
       </c>
       <c r="AA22">
         <v>4.5</v>
       </c>
       <c r="AB22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>34</v>
@@ -3422,7 +3422,7 @@
         <v>34</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>34</v>
@@ -3437,13 +3437,13 @@
         <v>37</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>34</v>
@@ -3452,54 +3452,54 @@
         <v>150</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U23" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V23" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W23" s="1">
         <v>10</v>
       </c>
       <c r="X23" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z23">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="AA23">
         <v>4</v>
       </c>
       <c r="AB23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>32</v>
@@ -3508,7 +3508,7 @@
         <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>34</v>
@@ -3520,16 +3520,16 @@
         <v>36</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>34</v>
@@ -3541,57 +3541,57 @@
         <v>40</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U24" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V24" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="W24" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X24" s="1">
         <v>8</v>
       </c>
       <c r="Y24">
+        <v>12</v>
+      </c>
+      <c r="Z24">
         <v>16</v>
-      </c>
-      <c r="Z24">
-        <v>18.399999999999999</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>34</v>
@@ -3609,13 +3609,13 @@
         <v>37</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>34</v>
@@ -3624,60 +3624,60 @@
         <v>150</v>
       </c>
       <c r="R25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="U25" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V25" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W25" s="1">
         <v>10</v>
       </c>
       <c r="X25" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="Y25">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z25">
-        <v>20</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="AA25">
         <v>4</v>
       </c>
       <c r="AB25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>35</v>
@@ -3689,16 +3689,16 @@
         <v>34</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>34</v>
@@ -3710,54 +3710,54 @@
         <v>129</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U26" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V26" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W26" s="1">
         <v>10</v>
       </c>
       <c r="X26" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Y26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z26">
-        <v>20</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
@@ -3769,19 +3769,19 @@
         <v>35</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>35</v>
@@ -3796,48 +3796,48 @@
         <v>149</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U27" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V27" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W27" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X27" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y27">
         <v>8</v>
       </c>
       <c r="Z27">
-        <v>19.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AA27">
         <v>3</v>
       </c>
       <c r="AB27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>34</v>
@@ -3864,16 +3864,16 @@
         <v>36</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>34</v>
@@ -3885,10 +3885,10 @@
         <v>40</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="U28" s="1">
         <v>10</v>
@@ -3912,27 +3912,27 @@
         <v>0</v>
       </c>
       <c r="AB28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>34</v>
@@ -3953,7 +3953,7 @@
         <v>37</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>35</v>
@@ -3968,19 +3968,19 @@
         <v>150</v>
       </c>
       <c r="R29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T29" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U29" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V29" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W29" s="1">
         <v>10</v>
@@ -3989,63 +3989,63 @@
         <v>10</v>
       </c>
       <c r="Y29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z29">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="AA29">
         <v>5</v>
       </c>
       <c r="AB29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="N30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>35</v>
@@ -4054,55 +4054,55 @@
         <v>99</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U30" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V30" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W30" s="1">
         <v>8</v>
       </c>
       <c r="X30" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y30">
         <v>8</v>
       </c>
-      <c r="Y30">
-        <v>6</v>
-      </c>
       <c r="Z30">
-        <v>16.8</v>
+        <v>14.4</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="F31" s="1" t="s">
         <v>34</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>34</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>34</v>
@@ -4122,16 +4122,16 @@
         <v>36</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>35</v>
@@ -4140,16 +4140,16 @@
         <v>148</v>
       </c>
       <c r="R31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T31" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U31" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V31" s="1">
         <v>10</v>
@@ -4161,39 +4161,39 @@
         <v>10</v>
       </c>
       <c r="Y31">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Z31">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="AA31">
         <v>4</v>
       </c>
       <c r="AB31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>35</v>
@@ -4202,22 +4202,22 @@
         <v>35</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>34</v>
@@ -4226,54 +4226,54 @@
         <v>140</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U32" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V32" s="1">
         <v>20</v>
       </c>
       <c r="W32" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X32" s="1">
         <v>10</v>
       </c>
       <c r="Y32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z32">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="AA32">
         <v>0</v>
       </c>
       <c r="AB32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>34</v>
@@ -4297,13 +4297,13 @@
         <v>37</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>34</v>
@@ -4312,28 +4312,28 @@
         <v>100</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="U33" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V33" s="1">
+        <v>10</v>
+      </c>
+      <c r="W33" s="1">
+        <v>10</v>
+      </c>
+      <c r="X33" s="1">
         <v>20</v>
       </c>
-      <c r="W33" s="1">
-        <v>10</v>
-      </c>
-      <c r="X33" s="1">
-        <v>10</v>
-      </c>
       <c r="Y33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z33">
         <v>20</v>
@@ -4342,24 +4342,24 @@
         <v>0</v>
       </c>
       <c r="AB33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>34</v>
@@ -4371,10 +4371,10 @@
         <v>34</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>36</v>
@@ -4383,10 +4383,10 @@
         <v>37</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>34</v>
@@ -4401,51 +4401,51 @@
         <v>40</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U34" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V34" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W34" s="1">
         <v>10</v>
       </c>
       <c r="X34" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z34">
-        <v>20</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="AA34">
         <v>5</v>
       </c>
       <c r="AB34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>34</v>
@@ -4454,10 +4454,10 @@
         <v>34</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>34</v>
@@ -4466,19 +4466,19 @@
         <v>36</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q35" s="1">
         <v>25</v>
@@ -4487,54 +4487,54 @@
         <v>40</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U35" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V35" s="1">
         <v>10</v>
       </c>
       <c r="W35" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="X35" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y35">
+        <v>16</v>
+      </c>
+      <c r="Z35">
         <v>18</v>
-      </c>
-      <c r="Z35">
-        <v>19.600000000000001</v>
       </c>
       <c r="AA35">
         <v>0</v>
       </c>
       <c r="AB35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>35</v>
@@ -4543,7 +4543,7 @@
         <v>35</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>34</v>
@@ -4555,13 +4555,13 @@
         <v>37</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>34</v>
@@ -4573,57 +4573,57 @@
         <v>40</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="U36" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V36" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W36" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X36" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y36">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z36">
-        <v>20</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AA36">
         <v>0</v>
       </c>
       <c r="AB36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>34</v>
@@ -4632,7 +4632,7 @@
         <v>34</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>36</v>
@@ -4656,28 +4656,28 @@
         <v>150</v>
       </c>
       <c r="R37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S37" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T37" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U37" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V37" s="1">
+        <v>10</v>
+      </c>
+      <c r="W37" s="1">
+        <v>10</v>
+      </c>
+      <c r="X37" s="1">
         <v>20</v>
       </c>
-      <c r="W37" s="1">
-        <v>10</v>
-      </c>
-      <c r="X37" s="1">
-        <v>10</v>
-      </c>
       <c r="Y37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z37">
         <v>20</v>
@@ -4686,36 +4686,36 @@
         <v>3</v>
       </c>
       <c r="AB37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>34</v>
@@ -4727,7 +4727,7 @@
         <v>37</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>34</v>
@@ -4742,131 +4742,131 @@
         <v>134</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U38" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V38" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W38" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X38" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z38">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="AA38">
         <v>0</v>
       </c>
       <c r="AB38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L39" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q39" s="1">
         <v>138</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="U39" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V39" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="W39" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X39" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Y39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z39">
-        <v>18.8</v>
+        <v>15.6</v>
       </c>
       <c r="AA39">
         <v>0</v>
       </c>
       <c r="AB39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>31</v>
@@ -4875,13 +4875,13 @@
         <v>34</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>34</v>
@@ -4893,19 +4893,19 @@
         <v>34</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>34</v>
@@ -4917,45 +4917,45 @@
         <v>40</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U40" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V40" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W40" s="1">
         <v>10</v>
       </c>
       <c r="X40" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y40">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Z40">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="AA40">
         <v>0</v>
       </c>
       <c r="AB40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>34</v>
@@ -4967,13 +4967,13 @@
         <v>34</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>34</v>
@@ -4982,16 +4982,16 @@
         <v>36</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>34</v>
@@ -5000,48 +5000,48 @@
         <v>150</v>
       </c>
       <c r="R41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S41" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T41" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="U41" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V41" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W41" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X41" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y41">
         <v>8</v>
       </c>
       <c r="Z41">
-        <v>19.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AA41">
         <v>3</v>
       </c>
       <c r="AB41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>34</v>
@@ -5050,7 +5050,7 @@
         <v>33</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>34</v>
@@ -5059,25 +5059,25 @@
         <v>35</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>34</v>
@@ -5086,66 +5086,66 @@
         <v>145</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="U42" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V42" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W42" s="1">
         <v>10</v>
       </c>
       <c r="X42" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Y42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z42">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="AA42">
         <v>5</v>
       </c>
       <c r="AB42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>34</v>
@@ -5157,7 +5157,7 @@
         <v>37</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>34</v>
@@ -5172,54 +5172,54 @@
         <v>125</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="U43" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V43" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W43" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X43" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y43">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Z43">
-        <v>19.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AA43">
         <v>8.5</v>
       </c>
       <c r="AB43" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>34</v>
@@ -5231,22 +5231,22 @@
         <v>35</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>34</v>
@@ -5258,28 +5258,28 @@
         <v>149</v>
       </c>
       <c r="R44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S44" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T44" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="U44" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V44" s="1">
+        <v>10</v>
+      </c>
+      <c r="W44" s="1">
+        <v>10</v>
+      </c>
+      <c r="X44" s="1">
         <v>20</v>
       </c>
-      <c r="W44" s="1">
-        <v>10</v>
-      </c>
-      <c r="X44" s="1">
-        <v>10</v>
-      </c>
       <c r="Y44">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z44">
         <v>20</v>
@@ -5288,33 +5288,33 @@
         <v>0</v>
       </c>
       <c r="AB44" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>34</v>
@@ -5329,72 +5329,72 @@
         <v>33</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q45" s="1">
         <v>135</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="U45" s="1">
         <v>10</v>
       </c>
       <c r="V45" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W45" s="1">
         <v>10</v>
       </c>
       <c r="X45" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y45">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z45">
-        <v>19.600000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="AA45">
         <v>0</v>
       </c>
       <c r="AB45" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>34</v>
@@ -5412,16 +5412,16 @@
         <v>36</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>34</v>
@@ -5430,54 +5430,54 @@
         <v>140</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="U46" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V46" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="W46" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X46" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y46">
         <v>6</v>
       </c>
       <c r="Z46">
-        <v>16.399999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="AA46">
         <v>0</v>
       </c>
       <c r="AB46" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>34</v>
@@ -5498,10 +5498,10 @@
         <v>36</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>34</v>
@@ -5516,28 +5516,28 @@
         <v>100</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="S47" s="4">
+        <v>45</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="U47" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V47" s="1">
+        <v>10</v>
+      </c>
+      <c r="W47" s="1">
+        <v>10</v>
+      </c>
+      <c r="X47" s="1">
         <v>20</v>
       </c>
-      <c r="W47" s="1">
-        <v>10</v>
-      </c>
-      <c r="X47" s="1">
-        <v>10</v>
-      </c>
       <c r="Y47">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z47">
         <v>20</v>
@@ -5546,30 +5546,30 @@
         <v>0</v>
       </c>
       <c r="AB47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>34</v>
@@ -5578,22 +5578,22 @@
         <v>35</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>34</v>
@@ -5602,19 +5602,19 @@
         <v>110</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U48" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V48" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W48" s="1">
         <v>10</v>
@@ -5623,33 +5623,33 @@
         <v>10</v>
       </c>
       <c r="Y48">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z48">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="AA48">
         <v>0</v>
       </c>
       <c r="AB48" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>34</v>
@@ -5664,16 +5664,16 @@
         <v>34</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>35</v>
@@ -5688,54 +5688,54 @@
         <v>149</v>
       </c>
       <c r="R49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S49" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T49" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="U49" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V49" s="1">
         <v>10</v>
       </c>
       <c r="W49" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X49" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Y49">
         <v>8</v>
       </c>
       <c r="Z49">
-        <v>18.399999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AA49">
         <v>0</v>
       </c>
       <c r="AB49" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>34</v>
@@ -5747,22 +5747,22 @@
         <v>34</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>34</v>
@@ -5774,54 +5774,54 @@
         <v>135</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="U50" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V50" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="W50" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="X50" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y50">
         <v>6</v>
       </c>
       <c r="Z50">
-        <v>17.2</v>
+        <v>15.6</v>
       </c>
       <c r="AA50">
         <v>0</v>
       </c>
       <c r="AB50" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>32</v>
@@ -5833,81 +5833,81 @@
         <v>34</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q51" s="1">
         <v>115</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="U51" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V51" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W51" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="X51" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Y51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z51">
-        <v>17.600000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="AA51">
         <v>0</v>
       </c>
       <c r="AB51" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>34</v>
@@ -5931,13 +5931,13 @@
         <v>37</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>34</v>
@@ -5946,54 +5946,54 @@
         <v>150</v>
       </c>
       <c r="R52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S52" s="1" t="s">
+      <c r="T52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T52" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="U52" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V52" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W52" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X52" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z52">
-        <v>19.2</v>
+        <v>16.8</v>
       </c>
       <c r="AA52">
         <v>3.5</v>
       </c>
       <c r="AB52" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>34</v>
@@ -6011,13 +6011,13 @@
         <v>34</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>34</v>
@@ -6032,81 +6032,81 @@
         <v>150</v>
       </c>
       <c r="R53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S53" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T53" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U53" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V53" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W53" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X53" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y53">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Z53">
-        <v>19.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AA53">
         <v>4</v>
       </c>
       <c r="AB53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N54" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>34</v>
@@ -6118,60 +6118,60 @@
         <v>140</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="U54" s="1">
         <v>20</v>
       </c>
       <c r="V54" s="1">
+        <v>10</v>
+      </c>
+      <c r="W54" s="1">
         <v>20</v>
       </c>
-      <c r="W54" s="1">
-        <v>10</v>
-      </c>
       <c r="X54" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y54">
         <v>8</v>
       </c>
       <c r="Z54">
-        <v>19.2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="AA54">
         <v>0</v>
       </c>
       <c r="AB54" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>35</v>
@@ -6180,7 +6180,7 @@
         <v>34</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>36</v>
@@ -6189,13 +6189,13 @@
         <v>37</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>34</v>
@@ -6207,16 +6207,16 @@
         <v>40</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U55" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V55" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W55" s="1">
         <v>10</v>
@@ -6225,45 +6225,45 @@
         <v>10</v>
       </c>
       <c r="Y55">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z55">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="AA55">
         <v>0</v>
       </c>
       <c r="AB55" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>34</v>
@@ -6272,10 +6272,10 @@
         <v>36</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>34</v>
@@ -6284,60 +6284,60 @@
         <v>34</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q56" s="1">
         <v>150</v>
       </c>
       <c r="R56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S56" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T56" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U56" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V56" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W56" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X56" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y56">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z56">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="AA56">
         <v>9</v>
       </c>
       <c r="AB56" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>32</v>
@@ -6349,22 +6349,22 @@
         <v>34</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>32</v>
@@ -6376,16 +6376,16 @@
         <v>150</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="U57" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V57" s="1">
         <v>10</v>
@@ -6397,7 +6397,7 @@
         <v>10</v>
       </c>
       <c r="Y57">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z57">
         <v>20</v>
@@ -6406,48 +6406,48 @@
         <v>5</v>
       </c>
       <c r="AB57" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>34</v>
@@ -6456,34 +6456,34 @@
         <v>34</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q58" s="1">
         <v>149</v>
       </c>
       <c r="R58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S58" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T58" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="U58" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V58" s="1">
+        <v>10</v>
+      </c>
+      <c r="W58" s="1">
+        <v>10</v>
+      </c>
+      <c r="X58" s="1">
         <v>20</v>
       </c>
-      <c r="W58" s="1">
-        <v>10</v>
-      </c>
-      <c r="X58" s="1">
-        <v>10</v>
-      </c>
       <c r="Y58">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z58">
         <v>20</v>
@@ -6492,24 +6492,24 @@
         <v>0</v>
       </c>
       <c r="AB58" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>34</v>
@@ -6533,13 +6533,13 @@
         <v>37</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>35</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>35</v>
@@ -6548,19 +6548,19 @@
         <v>148</v>
       </c>
       <c r="R59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S59" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T59" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="U59" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V59" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W59" s="1">
         <v>10</v>
@@ -6569,7 +6569,7 @@
         <v>10</v>
       </c>
       <c r="Y59">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z59">
         <v>20</v>
@@ -6578,24 +6578,24 @@
         <v>0</v>
       </c>
       <c r="AB59" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>34</v>
@@ -6610,7 +6610,7 @@
         <v>34</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>36</v>
@@ -6619,7 +6619,7 @@
         <v>37</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>39</v>
@@ -6634,66 +6634,66 @@
         <v>140</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="U60" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V60" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="W60" s="1">
         <v>18</v>
       </c>
       <c r="X60" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Y60">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z60">
-        <v>18.399999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="AA60">
         <v>4</v>
       </c>
       <c r="AB60" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>35</v>
@@ -6705,10 +6705,10 @@
         <v>37</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>32</v>
@@ -6720,57 +6720,57 @@
         <v>145</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="U61" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V61" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W61" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X61" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y61">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="Z61">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="AA61">
         <v>8</v>
       </c>
       <c r="AB61" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>34</v>
@@ -6791,7 +6791,7 @@
         <v>37</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>34</v>
@@ -6806,16 +6806,16 @@
         <v>150</v>
       </c>
       <c r="R62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S62" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S62" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="T62" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U62" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V62" s="1">
         <v>10</v>
@@ -6824,10 +6824,10 @@
         <v>10</v>
       </c>
       <c r="X62" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Y62" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z62">
         <v>20</v>
@@ -6836,7 +6836,7 @@
         <v>6</v>
       </c>
       <c r="AB62" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
@@ -7063,6 +7063,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>